--- a/All_HK_Bt_GE_data.xlsx
+++ b/All_HK_Bt_GE_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/perrielh/Documents/GitHub/Negative-Regulator-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C809383-B6A3-7047-802D-6CFF5CD5EC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0472E0EB-0F54-6F4C-917B-F51BFD0E9005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{7A26C5E7-96D1-48BE-832A-0113EABFEB89}"/>
+    <workbookView xWindow="13540" yWindow="760" windowWidth="16700" windowHeight="17240" xr2:uid="{7A26C5E7-96D1-48BE-832A-0113EABFEB89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -341,16 +341,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -360,13 +365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2915,8 +2913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE42B9A-A392-49C6-A5AC-AF7C2A16DDF5}">
   <dimension ref="A1:S317"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:S19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2971,41 +2969,41 @@
       <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4">
+      <c r="I3" s="2"/>
+      <c r="J3" s="3">
         <v>0</v>
       </c>
-      <c r="K3" s="4">
-        <v>2</v>
-      </c>
-      <c r="L3" s="4">
+      <c r="K3" s="3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3">
         <v>4</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>6</v>
       </c>
-      <c r="N3" s="4">
-        <v>8</v>
-      </c>
-      <c r="O3" s="4">
+      <c r="N3" s="3">
+        <v>8</v>
+      </c>
+      <c r="O3" s="3">
         <v>10</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>12</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>24</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="3">
         <v>36</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="4">
         <v>48</v>
       </c>
     </row>
@@ -3025,52 +3023,52 @@
       <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="G4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <f>AVERAGE(cac_def2_0)</f>
         <v>-8.8512096659713873</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <f>AVERAGE(cac_def2_2)</f>
         <v>-8.7593914624160298</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <f>AVERAGE(cac_def2_4)</f>
         <v>-8.2439559886310043</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>AVERAGE(cac_def2_6)</f>
         <v>-8.7886571552983739</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <f>AVERAGE(cac_def2_8)</f>
         <v>-8.9833372798256832</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <f>AVERAGE(cac_def2_10)</f>
         <v>-9.7751672872989577</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <f>AVERAGE(cac_def2_12)</f>
         <v>-10.73408479560894</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <f>AVERAGE(cac_def2_24)</f>
         <v>-12.147995815406778</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="3">
         <f>AVERAGE(cac_def2_36)</f>
         <v>-12.586889712637861</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="4">
         <f>AVERAGE(cac_def2_48)</f>
         <v>-14.116825700669558</v>
       </c>
@@ -3091,48 +3089,48 @@
       <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="16" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="1">
         <f>J4+16</f>
         <v>7.1487903340286127</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="1">
         <f t="shared" ref="K5:S5" si="0">K4+16</f>
         <v>7.2406085375839702</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="1">
         <f t="shared" si="0"/>
         <v>7.7560440113689957</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="1">
         <f t="shared" si="0"/>
         <v>7.2113428447016261</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="1">
         <f t="shared" si="0"/>
         <v>7.0166627201743168</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="1">
         <f t="shared" si="0"/>
         <v>6.2248327127010423</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="1">
         <f t="shared" si="0"/>
         <v>5.2659152043910602</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="1">
         <f t="shared" si="0"/>
         <v>3.8520041845932216</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="1">
         <f t="shared" si="0"/>
         <v>3.4131102873621391</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="13">
         <f t="shared" si="0"/>
         <v>1.8831742993304417</v>
       </c>
@@ -3153,48 +3151,48 @@
       <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <f>STDEV(cac_def2_0)</f>
         <v>1.8989782297738098</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6">
         <f>STDEV(cac_def2_2)</f>
         <v>1.440560319394304</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6">
         <f>STDEV(cac_def2_4)</f>
         <v>1.5882532528978184</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6">
         <f>STDEV(cac_def2_6)</f>
         <v>1.5570771835517201</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6">
         <f>STDEV(cac_def2_8)</f>
         <v>1.1364134692478016</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6">
         <f>STDEV(cac_def2_10)</f>
         <v>1.3755476456850604</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6">
         <f>STDEV(cac_def2_12)</f>
         <v>1.5505260660441931</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6">
         <f>STDEV(cac_def2_24)</f>
         <v>0.94978197339398562</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6">
         <f>STDEV(cac_def2_36)</f>
         <v>0.76464865464978182</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <f>STDEV(cac_def2_48)</f>
         <v>1.7995537892326314</v>
       </c>
@@ -3215,48 +3213,48 @@
       <c r="E7" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="15" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <f>COUNT(cac_def2_0)</f>
         <v>8</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <f>COUNT(cac_def2_2)</f>
         <v>7</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <f>COUNT(cac_def2_4)</f>
         <v>8</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <f>COUNT(cac_def2_6)</f>
         <v>8</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <f>COUNT(cac_def2_8)</f>
         <v>8</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="6">
         <f>COUNT(cac_def2_10)</f>
         <v>8</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="6">
         <f>COUNT(cac_def2_12)</f>
         <v>8</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="6">
         <f>COUNT(cac_def2_24)</f>
         <v>8</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="6">
         <f>COUNT(cac_def2_36)</f>
         <v>8</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="7">
         <f>COUNT(cac_def2_48)</f>
         <v>8</v>
       </c>
@@ -3277,50 +3275,50 @@
       <c r="E8" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="13" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <f>AVERAGE(mal_def2_0)</f>
         <v>-14.533420185158228</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f>AVERAGE(mal_def2_2)</f>
         <v>-7.8778919945106001</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <f>AVERAGE(mal_def2_4)</f>
         <v>-9.2995715879813581</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <f>AVERAGE(mal_def2_6)</f>
         <v>-7.6852084608699869</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <f>AVERAGE(mal_def2_8)</f>
         <v>-8.977021103260574</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <f>AVERAGE(mal_def2_10)</f>
         <v>-9.0350049986088017</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <f>AVERAGE(mal_def2_12)</f>
         <v>-11.834549916349221</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <f>AVERAGE(mal_def2_24)</f>
         <v>-13.119349003490953</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <f>AVERAGE(mal_def2_36)</f>
         <v>-14.059249272814286</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="4">
         <f>AVERAGE(mal_def2_48)</f>
         <v>-15.804107252206904</v>
       </c>
@@ -3341,48 +3339,48 @@
       <c r="E9" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="16" t="s">
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="1">
         <f>J8+16</f>
         <v>1.4665798148417721</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="1">
         <f t="shared" ref="K9:S9" si="1">K8+16</f>
         <v>8.1221080054893999</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="1">
         <f t="shared" si="1"/>
         <v>6.7004284120186419</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="1">
         <f t="shared" si="1"/>
         <v>8.3147915391300131</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="1">
         <f t="shared" si="1"/>
         <v>7.022978896739426</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="1">
         <f t="shared" si="1"/>
         <v>6.9649950013911983</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="1">
         <f t="shared" si="1"/>
         <v>4.1654500836507786</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="1">
         <f t="shared" si="1"/>
         <v>2.880650996509047</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="1">
         <f t="shared" si="1"/>
         <v>1.9407507271857138</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="13">
         <f t="shared" si="1"/>
         <v>0.19589274779309562</v>
       </c>
@@ -3403,21 +3401,12 @@
       <c r="E10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="14" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="6"/>
+      <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3435,21 +3424,21 @@
       <c r="E11" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="15" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="8"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -3467,52 +3456,52 @@
       <c r="E12" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="13" t="s">
+      <c r="G12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <f>AVERAGE(cac_cac_0)</f>
         <v>-12.022019815740176</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <f>AVERAGE(cac_cac_2)</f>
         <v>-12.366477950945413</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <f>AVERAGE(cac_cac_4)</f>
         <v>-12.500000526690009</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <f>AVERAGE(cac_cac_6)</f>
         <v>-12.932619493010753</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <f>AVERAGE(cac_cac_8)</f>
         <v>-12.981654291030267</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <f>AVERAGE(cac_cac_10)</f>
         <v>-12.903493619386927</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <f>AVERAGE(cac_cac_12)</f>
         <v>-14.264688421464916</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <f>AVERAGE(cac_cac_24)</f>
         <v>-14.860961156605086</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="3">
         <f>AVERAGE(cac_cac_36)</f>
         <v>-14.45881768025054</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="4">
         <f>AVERAGE(cac_cac_48)</f>
         <v>-14.93469156200991</v>
       </c>
@@ -3533,48 +3522,48 @@
       <c r="E13" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="16" t="s">
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="1">
         <f>J12+16</f>
         <v>3.9779801842598239</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="1">
         <f t="shared" ref="K13:S13" si="2">K12+16</f>
         <v>3.6335220490545872</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="1">
         <f t="shared" si="2"/>
         <v>3.4999994733099911</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="1">
         <f t="shared" si="2"/>
         <v>3.067380506989247</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="1">
         <f t="shared" si="2"/>
         <v>3.0183457089697328</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13" s="1">
         <f t="shared" si="2"/>
         <v>3.0965063806130733</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="1">
         <f t="shared" si="2"/>
         <v>1.7353115785350841</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="1">
         <f t="shared" si="2"/>
         <v>1.1390388433949141</v>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="1">
         <f t="shared" si="2"/>
         <v>1.5411823197494599</v>
       </c>
-      <c r="S13" s="18">
+      <c r="S13" s="13">
         <f t="shared" si="2"/>
         <v>1.0653084379900903</v>
       </c>
@@ -3595,21 +3584,51 @@
       <c r="E14" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="14" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="6"/>
+      <c r="J14">
+        <f>STDEV(cac_cac_0)</f>
+        <v>1.1086132989231305</v>
+      </c>
+      <c r="K14">
+        <f>STDEV(cac_cac_2)</f>
+        <v>1.2313045506882363</v>
+      </c>
+      <c r="L14">
+        <f>STDEV(cac_cac_4)</f>
+        <v>0.9720798126053013</v>
+      </c>
+      <c r="M14">
+        <f>STDEV(cac_cac_6)</f>
+        <v>0.72742343009812838</v>
+      </c>
+      <c r="N14">
+        <f>STDEV(cac_cac_8)</f>
+        <v>0.59716668152105579</v>
+      </c>
+      <c r="O14">
+        <f>STDEV(cac_cac_10)</f>
+        <v>0.79018369212886419</v>
+      </c>
+      <c r="P14">
+        <f>STDEV(cac_cac_12)</f>
+        <v>1.3862065035026603</v>
+      </c>
+      <c r="Q14">
+        <f>STDEV(cac_cac_24)</f>
+        <v>0.58809130241498697</v>
+      </c>
+      <c r="R14">
+        <f>STDEV(cac_cac_36)</f>
+        <v>0.64995403454491285</v>
+      </c>
+      <c r="S14" s="5">
+        <f>STDEV(cac_cac_48)</f>
+        <v>0.63035219824443622</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3627,21 +3646,51 @@
       <c r="E15" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="15" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="8"/>
+      <c r="J15" s="6">
+        <f>COUNT(cac_cac_0)</f>
+        <v>8</v>
+      </c>
+      <c r="K15" s="6">
+        <f>COUNT(cac_cac_2)</f>
+        <v>7</v>
+      </c>
+      <c r="L15" s="6">
+        <f>COUNT(cac_cac_4)</f>
+        <v>8</v>
+      </c>
+      <c r="M15" s="6">
+        <f>COUNT(cac_cac_6)</f>
+        <v>8</v>
+      </c>
+      <c r="N15" s="6">
+        <f>COUNT(cac_cac_8)</f>
+        <v>8</v>
+      </c>
+      <c r="O15" s="6">
+        <f>COUNT(cac_cac_10)</f>
+        <v>8</v>
+      </c>
+      <c r="P15" s="6">
+        <f>COUNT(cac_cac_12)</f>
+        <v>8</v>
+      </c>
+      <c r="Q15" s="6">
+        <f>COUNT(cac_cac_24)</f>
+        <v>8</v>
+      </c>
+      <c r="R15" s="6">
+        <f>COUNT(cac_cac_36)</f>
+        <v>8</v>
+      </c>
+      <c r="S15" s="7">
+        <f>COUNT(cac_cac_48)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3659,50 +3708,50 @@
       <c r="E16" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="14" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16">
         <f>AVERAGE(mal_cac_0)</f>
         <v>-11.465080270010461</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16">
         <f>AVERAGE(mal_cac_2)</f>
         <v>-10.681425265428194</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16">
         <f>AVERAGE(mal_cac_4)</f>
         <v>-11.486238560458705</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16">
         <f>AVERAGE(mal_cac_6)</f>
         <v>-12.264579049263082</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16">
         <f>AVERAGE(mal_cac_8)</f>
         <v>-12.280996938652825</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16">
         <f>AVERAGE(mal_cac_10)</f>
         <v>-12.884586440175392</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16">
         <f>AVERAGE(mal_cac_12)</f>
         <v>-13.419346004073978</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16">
         <f>AVERAGE(mal_cac_24)</f>
         <v>-13.699151060434701</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16">
         <f>AVERAGE(mal_cac_36)</f>
         <v>-14.028385226772807</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="5">
         <f>AVERAGE(mal_cac_48)</f>
         <v>-14.174582159331919</v>
       </c>
@@ -3723,48 +3772,48 @@
       <c r="E17" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="16" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="1">
         <f>J16+16</f>
         <v>4.5349197299895394</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="1">
         <f t="shared" ref="K17:S17" si="3">K16+16</f>
         <v>5.318574734571806</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="1">
         <f t="shared" si="3"/>
         <v>4.5137614395412946</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="1">
         <f t="shared" si="3"/>
         <v>3.735420950736918</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="1">
         <f t="shared" si="3"/>
         <v>3.7190030613471752</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="1">
         <f t="shared" si="3"/>
         <v>3.1154135598246082</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="1">
         <f t="shared" si="3"/>
         <v>2.5806539959260224</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="1">
         <f t="shared" si="3"/>
         <v>2.3008489395652987</v>
       </c>
-      <c r="R17" s="17">
+      <c r="R17" s="1">
         <f t="shared" si="3"/>
         <v>1.9716147732271931</v>
       </c>
-      <c r="S17" s="18">
+      <c r="S17" s="13">
         <f t="shared" si="3"/>
         <v>1.8254178406680808</v>
       </c>
@@ -3785,21 +3834,51 @@
       <c r="E18" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="14" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="6"/>
+      <c r="J18">
+        <f>STDEV(mal_cac_0)</f>
+        <v>1.207998349080758</v>
+      </c>
+      <c r="K18">
+        <f>STDEV(mal_cac_2)</f>
+        <v>0.7173862312973347</v>
+      </c>
+      <c r="L18">
+        <f>STDEV(mal_cac_4)</f>
+        <v>0.87578791654405319</v>
+      </c>
+      <c r="M18">
+        <f>STDEV(mal_cac_6)</f>
+        <v>0.64082251887522479</v>
+      </c>
+      <c r="N18">
+        <f>STDEV(mal_cac_8)</f>
+        <v>1.3615881464131765</v>
+      </c>
+      <c r="O18">
+        <f>STDEV(mal_cac_10)</f>
+        <v>0.67712773310900676</v>
+      </c>
+      <c r="P18">
+        <f>STDEV(mal_cac_12)</f>
+        <v>0.7900551270217252</v>
+      </c>
+      <c r="Q18">
+        <f>STDEV(mal_cac_24)</f>
+        <v>0.49377334555584129</v>
+      </c>
+      <c r="R18">
+        <f>STDEV(mal_cac_36)</f>
+        <v>0.83223330133303008</v>
+      </c>
+      <c r="S18" s="5">
+        <f>STDEV(mal_cac_48)</f>
+        <v>0.51283236922250475</v>
+      </c>
     </row>
     <row r="19" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -3817,21 +3896,51 @@
       <c r="E19" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="15" t="s">
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="8"/>
+      <c r="J19" s="6">
+        <f>COUNT(mal_cac_0)</f>
+        <v>8</v>
+      </c>
+      <c r="K19" s="6">
+        <f>COUNT(mal_cac_2)</f>
+        <v>8</v>
+      </c>
+      <c r="L19" s="6">
+        <f>COUNT(mal_cac_4)</f>
+        <v>8</v>
+      </c>
+      <c r="M19" s="6">
+        <f>COUNT(mal_cac_6)</f>
+        <v>8</v>
+      </c>
+      <c r="N19" s="6">
+        <f>COUNT(mal_cac_8)</f>
+        <v>8</v>
+      </c>
+      <c r="O19" s="6">
+        <f>COUNT(mal_cac_10)</f>
+        <v>8</v>
+      </c>
+      <c r="P19" s="6">
+        <f>COUNT(mal_cac_12)</f>
+        <v>7</v>
+      </c>
+      <c r="Q19" s="6">
+        <f>COUNT(mal_cac_24)</f>
+        <v>8</v>
+      </c>
+      <c r="R19" s="6">
+        <f>COUNT(mal_cac_36)</f>
+        <v>8</v>
+      </c>
+      <c r="S19" s="7">
+        <f>COUNT(mal_cac_48)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
